--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/3 INVERSIONES/3 PRUEBA FISICA INVERSIONES.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/3 INVERSIONES/3 PRUEBA FISICA INVERSIONES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\3 INVERSIONES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\3 INVERSIONES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F3062-F565-46DE-AC3C-848A1D37D96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -76,15 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">          Plazo de Inversión </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Auditoria de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                               Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      Entidad XXXXXXX</t>
   </si>
   <si>
     <r>
@@ -199,20 +185,29 @@
     <t>Tasas excesivamente altas o fuera de lo común.</t>
   </si>
   <si>
-    <t xml:space="preserve">                                 PRUEBA FISICA INVERSIONES</t>
-  </si>
-  <si>
     <t>Procedimientos para revisar fraudes</t>
   </si>
   <si>
     <t>C-2</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoria de Estados Financieros</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>PRUEBA FISICA INVERSIONES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,11 +261,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -408,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -425,15 +415,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -446,12 +431,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -460,6 +445,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,7 +529,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02AD85C-2D12-48C8-A1C7-DFD27AA512FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -593,7 +584,7 @@
         <xdr:cNvPr id="5" name="Conector recto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D784A819-57DA-4AB7-B47F-C8DDA9871868}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -648,7 +639,7 @@
         <xdr:cNvPr id="6" name="Elipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CCC011-B0C1-444B-BD63-2BDF7368DD23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -716,7 +707,7 @@
         <xdr:cNvPr id="8" name="Conector recto 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1A056C-BA75-45B1-9D43-59B8C8BB2340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,7 +762,7 @@
         <xdr:cNvPr id="10" name="Conector recto 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1E0F06-B71C-4BA8-8371-B3B5CE446868}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -823,7 +814,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -887,7 +884,7 @@
         <xdr:cNvPr id="13" name="Conector recto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1A056C-BA75-45B1-9D43-59B8C8BB2340}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,7 +939,7 @@
         <xdr:cNvPr id="14" name="Conector recto 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E1E0F06-B71C-4BA8-8371-B3B5CE446868}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,18 +980,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B16:J21" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B16:J21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B16:J21" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B16:J21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Banco" totalsRowLabel="Total" dataDxfId="8"/>
-    <tableColumn id="2" name="Certificado No." dataDxfId="7"/>
-    <tableColumn id="3" name="Fecha" dataDxfId="6"/>
-    <tableColumn id="4" name="Monto" dataDxfId="5"/>
-    <tableColumn id="5" name="Inicio" dataDxfId="4"/>
-    <tableColumn id="6" name="Final" dataDxfId="3"/>
-    <tableColumn id="7" name="Tasa Interes" dataDxfId="2"/>
-    <tableColumn id="8" name="Pago Intereses" dataDxfId="1"/>
-    <tableColumn id="9" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Banco" totalsRowLabel="Total" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Certificado No." dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fecha" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Monto" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Inicio" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Final" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Tasa Interes" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pago Intereses" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Observaciones" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1296,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1311,11 +1308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1331,8 +1328,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="25.5" customHeight="1">
-      <c r="L2" s="24" t="s">
-        <v>54</v>
+      <c r="L2" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -1340,262 +1337,267 @@
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="F4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="K4" s="23" t="s">
+      <c r="E4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="K4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="F5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="K5" s="23" t="s">
+      <c r="E5" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="K5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="K6" s="23" t="s">
+      <c r="E6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="K6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="E7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="K7" s="23" t="s">
+      <c r="E7" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="K7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="21" t="s">
-        <v>53</v>
+      <c r="B9" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="20" t="s">
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="H13" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="19" t="s">
+    <row r="15" spans="2:12" ht="19.5" customHeight="1">
+      <c r="F15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:12" ht="32.25" customHeight="1">
+      <c r="B16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="32.25" customHeight="1">
+      <c r="B17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="15">
         <v>50</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="19.5" customHeight="1">
-      <c r="F15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B17" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="J17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="18">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="18" t="s">
+    </row>
+    <row r="18" spans="2:10" ht="32.25" customHeight="1">
+      <c r="B18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2000</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="14">
+        <v>80</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="18">
-        <v>50</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B18" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="17">
-        <v>2</v>
-      </c>
-      <c r="D18" s="17" t="s">
+    </row>
+    <row r="19" spans="2:10" ht="32.25" customHeight="1">
+      <c r="B19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="17">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="E19" s="15">
+        <v>1500</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="17">
-        <v>80</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B19" s="18" t="s">
+      <c r="H19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="18">
-        <v>3</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="I19" s="15">
+        <v>90</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="32.25" customHeight="1">
+      <c r="B20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="18">
-        <v>1500</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="C20" s="14">
+        <v>4</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="E20" s="14">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="18">
-        <v>90</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B20" s="17" t="s">
+      <c r="H20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="17">
-        <v>4</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="I20" s="14">
+        <v>87.5</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="32.25" customHeight="1">
+      <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="17">
-        <v>2500</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="C21" s="15">
+        <v>5</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="E21" s="15">
+        <v>3000</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="17">
-        <v>87.5</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="32.25" customHeight="1">
-      <c r="B21" s="18" t="s">
+      <c r="H21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="18">
-        <v>5</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="18">
-        <v>3000</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="18">
+      <c r="I21" s="15">
         <v>135</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>28</v>
+      <c r="J21" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -1621,39 +1623,39 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="B29" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
@@ -1667,20 +1669,24 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="15"/>
+      <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H38" s="5"/>
       <c r="J38" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B29:J31"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="75" orientation="landscape" r:id="rId1"/>
